--- a/src/main/resources/cases_v4.xlsx
+++ b/src/main/resources/cases_v4.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9405" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
-    <sheet name="用例" sheetId="2" r:id="rId2"/>
+    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
+    <sheet name="用例" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!$A$1:$E$7</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -232,11 +232,27 @@
     <t>{"status":0,"code":"10001","data":null,"msg":"登录成功"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,57 +307,57 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -355,10 +371,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -516,7 +532,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -525,13 +541,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -541,7 +557,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -550,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -559,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,12 +585,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -605,7 +621,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -624,7 +640,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -636,8 +652,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -645,10 +661,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="77.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -850,15 +866,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="D3"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -866,14 +882,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.25" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="50.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="66.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="53.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="18" r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -903,7 +919,9 @@
       <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -918,9 +936,11 @@
       <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -933,7 +953,9 @@
       <c r="D4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -948,7 +970,9 @@
       <c r="D5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -963,7 +987,9 @@
       <c r="D6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -978,7 +1004,9 @@
       <c r="D7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -993,6 +1021,9 @@
       <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -1007,6 +1038,9 @@
       <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -1021,6 +1055,9 @@
       <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -1035,10 +1072,13 @@
       <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/src/main/resources/cases_v4.xlsx
+++ b/src/main/resources/cases_v4.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
-    <sheet name="用例" r:id="rId2" sheetId="2"/>
+    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
+    <sheet name="用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>recharge</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
     <t>withdraw</t>
@@ -133,9 +130,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>{"mobilephone":"19000000000","pwd":""}</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"20110","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>{"mobilephone":"19000000000","pwd":"12345"}</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -193,7 +184,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"19000000000","pwd":"123456"}</t>
+    <t>{"mobilephone":"","pwd":"123456"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或者密码错误"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"10001","data":null,"msg":"登录成功"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"15868821400","pwd":"123"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -201,58 +224,93 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"15868821400","pwd":"123"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"","pwd":"123456"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mobilephone":"15868821400","pwd":""}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>{"mobilephone":"15868821400","pwd":"12345"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15868821400","amount":""}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"","amount":"123456"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15868821400","amount":"123456"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15868821400","amount":"123456123"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"15868821400","amount":"123456.00112"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"1586880","amount":"123456"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或者密码错误"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"10001","data":null,"msg":"登录成功"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+    <t>{"mobilephone":"15868821499","amount":"123456"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"手机号对应会员不存在"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号格式不正确"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"10001","data":null,"msg":"充值成功"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":24689,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15868821400","leaveamount":"123456.00","type":"1","regtime":"2018-08-14 13:35:49.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,57 +365,60 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -371,10 +432,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -532,7 +593,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -541,13 +602,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -557,7 +618,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -566,7 +627,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -575,7 +636,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -585,12 +646,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -621,7 +682,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -640,7 +701,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -652,19 +713,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="77.25" collapsed="true"/>
+    <col min="1" max="1" width="19.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -672,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -686,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -706,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -719,8 +780,8 @@
       <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
+      <c r="D4" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -728,13 +789,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -742,13 +803,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -756,13 +817,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -770,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -784,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -798,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -812,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -826,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -840,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -854,158 +915,159 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="17.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="50.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="66.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="53.25" collapsed="true"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.75" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="68.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="53.25" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1016,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1033,13 +1095,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1050,13 +1112,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1067,18 +1129,120 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>